--- a/Data/Processes/proProfil.xlsx
+++ b/Data/Processes/proProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B4E9D-FDF7-476E-91DC-EDFB30A0CEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1E84A-6E90-41B2-85F3-0397F577DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="636" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="768" yWindow="984" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Record/Dialog</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>003_Profil_001_Allgemein_CheckingDefaults</t>
+  </si>
+  <si>
+    <t>003_Profil_003_Abwesenheiten_Normalfall_Anlage</t>
+  </si>
+  <si>
+    <t>Abwesenheit anlegen Page Abwesenheiten</t>
+  </si>
+  <si>
+    <t>popAbwesenheitAnlegen</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester anlegen</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester checken</t>
+  </si>
+  <si>
+    <t>Abwesenheit Sylvester löschen</t>
   </si>
 </sst>
 </file>
@@ -90,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -406,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA3827D-32E6-471F-9558-7E33CE88057F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,14 +436,15 @@
     <col min="1" max="1" width="44.44140625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.88671875" customWidth="1"/>
     <col min="8" max="8" width="27.109375" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -452,8 +472,14 @@
       <c r="I1" t="s">
         <v>2</v>
       </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -469,17 +495,44 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Processes/proProfil.xlsx
+++ b/Data/Processes/proProfil.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1E84A-6E90-41B2-85F3-0397F577DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A316422F-3356-4D9E-B82B-CEB875CFEB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="984" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
+    <workbookView xWindow="252" yWindow="3444" windowWidth="40440" windowHeight="15300" xr2:uid="{4DC4C87B-7F58-471B-B3CC-042ADA6A7201}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,10 +438,10 @@
     <col min="3" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="35.88671875" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" customWidth="1"/>
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
